--- a/biology/Médecine/Leucocytose/Leucocytose.xlsx
+++ b/biology/Médecine/Leucocytose/Leucocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La leucocytose, également appelée hyperleucocytose, est une augmentation du nombre de globules blancs dans le sang visible sur une numération de la formule sanguine. Elle est fréquemment le signe d'une réponse inflammatoire à la suite d'une infection mais peut aussi survenir à la suite d'une leucémie ou certaines tumeurs osseuses. Elle peut être caractérisée par une augmentation du nombre de polynucléaires neutrophiles, éosinophiles ou basophiles, du nombre de lymphocytes ou du nombre de monocytes. La diminution du nombre de leucocytes dans le sang conduisant à un nombre inférieur à la normale est appelée leucopénie.
 On distingue :
@@ -517,10 +529,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hyperleucocytose peut être normale, physiologique :
-à la suite d'un effort physique[1] avec l'augmentation des catécholamines (cortisol)[2] ;
+à la suite d'un effort physique avec l'augmentation des catécholamines (cortisol) ;
 après un stress important ;
 lors de la grossesse et en post-partum.
 Elle devient anormale voire pathologique :
